--- a/source_data/Affinity Benchmark v5.5.xlsx
+++ b/source_data/Affinity Benchmark v5.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="11385"/>
+    <workbookView windowWidth="22485" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8268,6 +8268,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>Trillo-Muyo, S., Martinez-Rodriguez, S., Arolas, J. L. &amp; Gomis-Ruth, F. X. (2013). Mechanism of action of a janus-faced single</t>
     </r>
     <r>
@@ -8646,7 +8652,7 @@
         <rFont val="CMR6"/>
         <charset val="134"/>
       </rPr>
-      <t>x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x0002_terminal domain</t>
+      <t>x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x0002_terminal domain</t>
     </r>
   </si>
   <si>
@@ -8817,7 +8823,7 @@
         <rFont val="CMR6"/>
         <charset val="134"/>
       </rPr>
-      <t>x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x0002_terminal domain</t>
+      <t>x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x005f_x0002_terminal domain</t>
     </r>
   </si>
   <si>
@@ -11382,7 +11388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11435,9 +11441,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11753,8 +11756,8 @@
   <sheetPr/>
   <dimension ref="A1:O286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="X112" sqref="X112"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="H205" sqref="H205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -20952,12 +20955,8 @@
         <v>1199</v>
       </c>
       <c r="G205" s="4"/>
-      <c r="H205" s="4">
-        <v>0</v>
-      </c>
-      <c r="I205" s="4">
-        <v>0</v>
-      </c>
+      <c r="H205" s="6"/>
+      <c r="I205" s="6"/>
       <c r="J205" s="4">
         <v>0.59</v>
       </c>
@@ -22257,9 +22256,7 @@
         <v>1372</v>
       </c>
       <c r="G242" s="4"/>
-      <c r="H242" s="4">
-        <v>0</v>
-      </c>
+      <c r="H242" s="6"/>
       <c r="I242" s="4"/>
       <c r="J242" s="4">
         <v>0.79</v>
@@ -22451,7 +22448,7 @@
       <c r="F247" s="14" t="s">
         <v>1400</v>
       </c>
-      <c r="G247" s="18"/>
+      <c r="G247" s="9"/>
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
       <c r="J247" s="4">
